--- a/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
+++ b/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20190908\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20190916\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="JSTARK_CODE_GROUP" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6088" uniqueCount="2202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6196" uniqueCount="2230">
   <si>
     <t>CLIENT</t>
   </si>
@@ -6728,6 +6728,90 @@
   <si>
     <t>/platform/matrix/index.do</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M75NKTKIGCAAAAAAAAAVWSIT1JZ</t>
+  </si>
+  <si>
+    <t>GATEWAY</t>
+  </si>
+  <si>
+    <t>/platform/gateway/index.do</t>
+  </si>
+  <si>
+    <t>C75NJ60AV4AAAAAAAQVRVJM5KQO</t>
+  </si>
+  <si>
+    <t>C75NJ60AYOAAAAAAAQVSKECQ60V</t>
+  </si>
+  <si>
+    <t>C75NKTLHJSAAAAAABYNAHPLX976</t>
+  </si>
+  <si>
+    <t>C75NKOU2FDAAAAAABHRJBSDO3OC</t>
+  </si>
+  <si>
+    <t>C75NKOUALBAAAAAABLWUAEY2NWD</t>
+  </si>
+  <si>
+    <t>C75NKTLHNKAAAAAACCSLJIODBWB</t>
+  </si>
+  <si>
+    <t>C75NKPDPU1AAAAAAAAAATGD1OT8</t>
+  </si>
+  <si>
+    <t>C75NKTLCS5AAAAAABUHPRVGKHAB</t>
+  </si>
+  <si>
+    <t>C75NKTLRNMAAAAAACPISEWZ9WU0</t>
+  </si>
+  <si>
+    <t>C75NKTLXTWAAAAAACTOCBISC215</t>
+  </si>
+  <si>
+    <t>C75NKTLY5JAAAAAACXTMYBJ1NBG</t>
+  </si>
+  <si>
+    <t>C75NKTLZJHAAAAAADGEIKPJGTWO</t>
+  </si>
+  <si>
+    <t>C75NKTM5PQAAAAAADOPEICSD4DG</t>
+  </si>
+  <si>
+    <t>C75NKTM5PQAAAAAADOPEWXIVEYD</t>
+  </si>
+  <si>
+    <t>C75NKTM5PRAAAAAADOPFLRYG9Q2</t>
+  </si>
+  <si>
+    <t>C75NKTM5PRAAAAAADOPGAMOW5I7</t>
+  </si>
+  <si>
+    <t>C75NKTM5Q0AAAAAADOPGPHE773B</t>
+  </si>
+  <si>
+    <t>C75NKTM5QGAAAAAADOPHEBUCFZU</t>
+  </si>
+  <si>
+    <t>C75NKTM5QOAAAAAADOPHSWKW7JC</t>
+  </si>
+  <si>
+    <t>C75NKTM5QRAAAAAADOPJLGGOFGO</t>
+  </si>
+  <si>
+    <t>C75NKU50CFAAAAAAAMQGZYNNU6L</t>
+  </si>
+  <si>
+    <t>C75NKPE1CIAAAAAAAZGTSXN8HA9</t>
+  </si>
+  <si>
+    <t>C75NJ755OQAAAAAAAAAAZWQ9DUC</t>
+  </si>
+  <si>
+    <t>C75NKPE690AAAAAABQDBCDB0BQ2</t>
+  </si>
+  <si>
+    <t>C75NKTLBCBAAAAAABQCQERTHJ4L</t>
   </si>
 </sst>
 </file>
@@ -7377,8 +7461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9617,16 +9701,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
@@ -11938,6 +12022,431 @@
       </c>
       <c r="G136" t="s">
         <v>1155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>100</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C137" t="s">
+        <v>803</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>100</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C138" t="s">
+        <v>803</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C139" t="s">
+        <v>803</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>100</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C140" t="s">
+        <v>803</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>100</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C141" t="s">
+        <v>803</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>100</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C142" t="s">
+        <v>803</v>
+      </c>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>100</v>
+      </c>
+      <c r="B143" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C143" t="s">
+        <v>803</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>100</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C144" t="s">
+        <v>803</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>100</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C145" t="s">
+        <v>803</v>
+      </c>
+      <c r="F145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>100</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C146" t="s">
+        <v>803</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>100</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C147" t="s">
+        <v>803</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>100</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C148" t="s">
+        <v>803</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>100</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C149" t="s">
+        <v>803</v>
+      </c>
+      <c r="F149" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>100</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C150" t="s">
+        <v>803</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>100</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C151" t="s">
+        <v>803</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>100</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C152" t="s">
+        <v>803</v>
+      </c>
+      <c r="F152" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>100</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C153" t="s">
+        <v>803</v>
+      </c>
+      <c r="F153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>100</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C154" t="s">
+        <v>803</v>
+      </c>
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>100</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C155" t="s">
+        <v>803</v>
+      </c>
+      <c r="F155" t="s">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>100</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C156" t="s">
+        <v>803</v>
+      </c>
+      <c r="F156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>100</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C157" t="s">
+        <v>803</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>100</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C158" t="s">
+        <v>803</v>
+      </c>
+      <c r="F158" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>100</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C159" t="s">
+        <v>803</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>100</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C160" t="s">
+        <v>803</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>100</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C161" t="s">
+        <v>803</v>
+      </c>
+      <c r="F161" t="s">
+        <v>13</v>
+      </c>
+      <c r="G161" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -30307,10 +30816,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30886,10 +31395,10 @@
         <v>803</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -30901,13 +31410,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>812</v>
+        <v>2202</v>
       </c>
       <c r="I13" t="s">
-        <v>234</v>
+        <v>2203</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2204</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="M13" t="s">
         <v>800</v>
@@ -30936,7 +31448,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -30948,16 +31460,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I14" t="s">
-        <v>814</v>
-      </c>
-      <c r="K14" t="s">
-        <v>2000</v>
+        <v>234</v>
       </c>
       <c r="L14" t="s">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="M14" t="s">
         <v>800</v>
@@ -30986,7 +31495,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -30998,13 +31507,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="I15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="K15" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="L15" t="s">
         <v>800</v>
@@ -31036,7 +31545,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -31048,13 +31557,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K16" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L16" t="s">
         <v>800</v>
@@ -31083,10 +31592,10 @@
         <v>803</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -31098,13 +31607,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="I17" t="s">
-        <v>822</v>
+        <v>818</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2002</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="M17" t="s">
         <v>800</v>
@@ -31133,7 +31645,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -31145,16 +31657,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I18" t="s">
-        <v>824</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2003</v>
+        <v>822</v>
       </c>
       <c r="L18" t="s">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="M18" t="s">
         <v>800</v>
@@ -31183,7 +31692,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -31195,13 +31704,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="I19" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="K19" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="L19" t="s">
         <v>800</v>
@@ -31227,13 +31736,13 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>1152</v>
+        <v>803</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -31245,16 +31754,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>1154</v>
+        <v>831</v>
       </c>
       <c r="I20" t="s">
-        <v>1159</v>
+        <v>832</v>
       </c>
       <c r="K20" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L20" t="s">
-        <v>1158</v>
+        <v>800</v>
       </c>
       <c r="M20" t="s">
         <v>800</v>
@@ -31277,7 +31786,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>1152</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -31295,16 +31804,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>1990</v>
+        <v>1154</v>
       </c>
       <c r="I21" t="s">
-        <v>1991</v>
+        <v>1159</v>
       </c>
       <c r="K21" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="L21" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="M21" t="s">
         <v>800</v>
@@ -31327,7 +31836,7 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -31345,16 +31854,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>825</v>
+        <v>1990</v>
       </c>
       <c r="I22" t="s">
-        <v>826</v>
+        <v>1991</v>
       </c>
       <c r="K22" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L22" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="M22" t="s">
         <v>800</v>
@@ -31380,7 +31889,7 @@
         <v>820</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -31395,13 +31904,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I23" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="K23" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="L23" t="s">
         <v>1167</v>
@@ -31427,10 +31936,10 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -31445,16 +31954,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I24" t="s">
-        <v>1165</v>
+        <v>828</v>
       </c>
       <c r="K24" t="s">
-        <v>2195</v>
+        <v>2008</v>
       </c>
       <c r="L24" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M24" t="s">
         <v>800</v>
@@ -31480,7 +31989,7 @@
         <v>801</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -31495,16 +32004,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I25" t="s">
-        <v>2166</v>
+        <v>1165</v>
       </c>
       <c r="K25" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="L25" t="s">
-        <v>800</v>
+        <v>1166</v>
       </c>
       <c r="M25" t="s">
         <v>800</v>
@@ -31519,6 +32028,56 @@
         <v>12</v>
       </c>
       <c r="Q25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>801</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>830</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L26" t="s">
+        <v>800</v>
+      </c>
+      <c r="M26" t="s">
+        <v>800</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" t="s">
         <v>13</v>
       </c>
     </row>

--- a/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
+++ b/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20190916\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20191209\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="JSTARK_CODE_GROUP" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6196" uniqueCount="2230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6188" uniqueCount="2227">
   <si>
     <t>CLIENT</t>
   </si>
@@ -6728,15 +6728,6 @@
   <si>
     <t>/platform/matrix/index.do</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M75NKTKIGCAAAAAAAAAVWSIT1JZ</t>
-  </si>
-  <si>
-    <t>GATEWAY</t>
-  </si>
-  <si>
-    <t>/platform/gateway/index.do</t>
   </si>
   <si>
     <t>C75NJ60AV4AAAAAAAQVRVJM5KQO</t>
@@ -9703,7 +9694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
@@ -12029,7 +12020,7 @@
         <v>100</v>
       </c>
       <c r="B137" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="C137" t="s">
         <v>803</v>
@@ -12046,7 +12037,7 @@
         <v>100</v>
       </c>
       <c r="B138" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C138" t="s">
         <v>803</v>
@@ -12063,7 +12054,7 @@
         <v>100</v>
       </c>
       <c r="B139" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="C139" t="s">
         <v>803</v>
@@ -12080,7 +12071,7 @@
         <v>100</v>
       </c>
       <c r="B140" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="C140" t="s">
         <v>803</v>
@@ -12097,7 +12088,7 @@
         <v>100</v>
       </c>
       <c r="B141" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="C141" t="s">
         <v>803</v>
@@ -12114,7 +12105,7 @@
         <v>100</v>
       </c>
       <c r="B142" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="C142" t="s">
         <v>803</v>
@@ -12131,7 +12122,7 @@
         <v>100</v>
       </c>
       <c r="B143" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="C143" t="s">
         <v>803</v>
@@ -12148,7 +12139,7 @@
         <v>100</v>
       </c>
       <c r="B144" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="C144" t="s">
         <v>803</v>
@@ -12165,7 +12156,7 @@
         <v>100</v>
       </c>
       <c r="B145" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="C145" t="s">
         <v>803</v>
@@ -12182,7 +12173,7 @@
         <v>100</v>
       </c>
       <c r="B146" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="C146" t="s">
         <v>803</v>
@@ -12199,7 +12190,7 @@
         <v>100</v>
       </c>
       <c r="B147" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="C147" t="s">
         <v>803</v>
@@ -12216,7 +12207,7 @@
         <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="C148" t="s">
         <v>803</v>
@@ -12233,7 +12224,7 @@
         <v>100</v>
       </c>
       <c r="B149" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="C149" t="s">
         <v>803</v>
@@ -12250,7 +12241,7 @@
         <v>100</v>
       </c>
       <c r="B150" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="C150" t="s">
         <v>803</v>
@@ -12267,7 +12258,7 @@
         <v>100</v>
       </c>
       <c r="B151" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C151" t="s">
         <v>803</v>
@@ -12284,7 +12275,7 @@
         <v>100</v>
       </c>
       <c r="B152" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="C152" t="s">
         <v>803</v>
@@ -12301,7 +12292,7 @@
         <v>100</v>
       </c>
       <c r="B153" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="C153" t="s">
         <v>803</v>
@@ -12318,7 +12309,7 @@
         <v>100</v>
       </c>
       <c r="B154" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C154" t="s">
         <v>803</v>
@@ -12335,7 +12326,7 @@
         <v>100</v>
       </c>
       <c r="B155" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="C155" t="s">
         <v>803</v>
@@ -12352,7 +12343,7 @@
         <v>100</v>
       </c>
       <c r="B156" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="C156" t="s">
         <v>803</v>
@@ -12369,7 +12360,7 @@
         <v>100</v>
       </c>
       <c r="B157" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C157" t="s">
         <v>803</v>
@@ -12386,7 +12377,7 @@
         <v>100</v>
       </c>
       <c r="B158" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="C158" t="s">
         <v>803</v>
@@ -12403,7 +12394,7 @@
         <v>100</v>
       </c>
       <c r="B159" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C159" t="s">
         <v>803</v>
@@ -12420,7 +12411,7 @@
         <v>100</v>
       </c>
       <c r="B160" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C160" t="s">
         <v>803</v>
@@ -12437,7 +12428,7 @@
         <v>100</v>
       </c>
       <c r="B161" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="C161" t="s">
         <v>803</v>
@@ -30816,10 +30807,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31395,10 +31386,10 @@
         <v>803</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -31410,16 +31401,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>2202</v>
+        <v>812</v>
       </c>
       <c r="I13" t="s">
-        <v>2203</v>
-      </c>
-      <c r="K13" t="s">
-        <v>2204</v>
+        <v>234</v>
       </c>
       <c r="L13" t="s">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="M13" t="s">
         <v>800</v>
@@ -31448,7 +31436,7 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -31460,13 +31448,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="I14" t="s">
-        <v>234</v>
+        <v>814</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2000</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="M14" t="s">
         <v>800</v>
@@ -31495,7 +31486,7 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -31507,13 +31498,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="I15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="K15" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="L15" t="s">
         <v>800</v>
@@ -31545,7 +31536,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -31557,13 +31548,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I16" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="K16" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="L16" t="s">
         <v>800</v>
@@ -31592,10 +31583,10 @@
         <v>803</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -31607,16 +31598,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="I17" t="s">
-        <v>818</v>
-      </c>
-      <c r="K17" t="s">
-        <v>2002</v>
+        <v>822</v>
       </c>
       <c r="L17" t="s">
-        <v>800</v>
+        <v>12</v>
       </c>
       <c r="M17" t="s">
         <v>800</v>
@@ -31645,7 +31633,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -31657,13 +31645,16 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="I18" t="s">
-        <v>822</v>
+        <v>824</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2003</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="M18" t="s">
         <v>800</v>
@@ -31692,7 +31683,7 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -31704,13 +31695,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="I19" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="K19" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="L19" t="s">
         <v>800</v>
@@ -31736,13 +31727,13 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>803</v>
+        <v>1152</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -31754,16 +31745,16 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>831</v>
+        <v>1154</v>
       </c>
       <c r="I20" t="s">
-        <v>832</v>
+        <v>1159</v>
       </c>
       <c r="K20" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="L20" t="s">
-        <v>800</v>
+        <v>1158</v>
       </c>
       <c r="M20" t="s">
         <v>800</v>
@@ -31786,7 +31777,7 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>1152</v>
+        <v>802</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -31804,16 +31795,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>1154</v>
+        <v>1990</v>
       </c>
       <c r="I21" t="s">
-        <v>1159</v>
+        <v>1991</v>
       </c>
       <c r="K21" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="L21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M21" t="s">
         <v>800</v>
@@ -31836,7 +31827,7 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -31854,16 +31845,16 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>1990</v>
+        <v>825</v>
       </c>
       <c r="I22" t="s">
-        <v>1991</v>
+        <v>826</v>
       </c>
       <c r="K22" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="L22" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="M22" t="s">
         <v>800</v>
@@ -31889,7 +31880,7 @@
         <v>820</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -31904,13 +31895,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="I23" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="K23" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="L23" t="s">
         <v>1167</v>
@@ -31936,10 +31927,10 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -31954,16 +31945,16 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I24" t="s">
-        <v>828</v>
+        <v>1165</v>
       </c>
       <c r="K24" t="s">
-        <v>2008</v>
+        <v>2195</v>
       </c>
       <c r="L24" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M24" t="s">
         <v>800</v>
@@ -31989,7 +31980,7 @@
         <v>801</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -32004,16 +31995,16 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I25" t="s">
-        <v>1165</v>
+        <v>2166</v>
       </c>
       <c r="K25" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="L25" t="s">
-        <v>1166</v>
+        <v>800</v>
       </c>
       <c r="M25" t="s">
         <v>800</v>
@@ -32028,56 +32019,6 @@
         <v>12</v>
       </c>
       <c r="Q25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>801</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>830</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2166</v>
-      </c>
-      <c r="K26" t="s">
-        <v>2196</v>
-      </c>
-      <c r="L26" t="s">
-        <v>800</v>
-      </c>
-      <c r="M26" t="s">
-        <v>800</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" t="s">
         <v>13</v>
       </c>
     </row>

--- a/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
+++ b/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20191209\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20200418\DEV\workspace\jstarkbizsuite\webapp\WEB-INF\resource\setup\jstark_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82882F-1CFC-4708-979C-033AAB721FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="783" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSTARK_CODE_GROUP" sheetId="2" r:id="rId1"/>
@@ -6808,7 +6809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7152,7 +7153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7280,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7449,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -9691,7 +9692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12447,7 +12448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12545,7 +12546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12811,7 +12812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14195,7 +14196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14334,7 +14335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14458,7 +14459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -14573,7 +14574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G692"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
@@ -30490,7 +30491,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G1230">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G1230">
     <sortCondition ref="C3:C1230"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30500,7 +30501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30573,7 +30574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -30796,7 +30797,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:K8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30806,11 +30807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31300,6 +31301,9 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
       <c r="H11" t="s">
         <v>2199</v>
       </c>
@@ -32023,7 +32027,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:Q36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q36">
     <sortCondition ref="B3:B36"/>
     <sortCondition ref="C3:C36"/>
     <sortCondition ref="D3:D36"/>

--- a/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
+++ b/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20200418\DEV\workspace\jstarkbizsuite\webapp\WEB-INF\resource\setup\jstark_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20191209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82882F-1CFC-4708-979C-033AAB721FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="783" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="JSTARK_CODE_GROUP" sheetId="2" r:id="rId1"/>
@@ -6809,7 +6808,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7153,7 +7152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7281,7 +7280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7450,7 +7449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -9692,7 +9691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12448,7 +12447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12546,7 +12545,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12812,7 +12811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14196,7 +14195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14335,7 +14334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14459,7 +14458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -14574,7 +14573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G692"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
@@ -30491,7 +30490,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G1230">
+  <sortState ref="A3:G1230">
     <sortCondition ref="C3:C1230"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30501,7 +30500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30574,7 +30573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -30797,7 +30796,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K8">
+  <sortState ref="A3:K8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30807,11 +30806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31301,9 +31300,6 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11" t="s">
         <v>2199</v>
       </c>
@@ -32027,7 +32023,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q36">
+  <sortState ref="A3:Q36">
     <sortCondition ref="B3:B36"/>
     <sortCondition ref="C3:C36"/>
     <sortCondition ref="D3:D36"/>

--- a/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
+++ b/webapp/WEB-INF/resource/setup/jstark_database/jstark_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20191209\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\share\20200813\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0763654A-A9A4-40DB-97E5-51188A10B8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="5550" tabRatio="783" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="783" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSTARK_CODE_GROUP" sheetId="2" r:id="rId1"/>
@@ -6808,7 +6809,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7152,7 +7153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7280,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7449,7 +7450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -9691,7 +9692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12447,7 +12448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12545,7 +12546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12811,7 +12812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14195,7 +14196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14334,7 +14335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14458,7 +14459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -14573,7 +14574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G692"/>
   <sheetViews>
     <sheetView topLeftCell="A261" zoomScaleNormal="100" workbookViewId="0">
@@ -30490,7 +30491,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:G1230">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G1230">
     <sortCondition ref="C3:C1230"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30500,7 +30501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30573,11 +30574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30655,7 +30656,7 @@
         <v>12</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>910</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -30687,7 +30688,7 @@
         <v>1156</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>920</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -30719,7 +30720,7 @@
         <v>1156</v>
       </c>
       <c r="H5">
-        <v>30</v>
+        <v>930</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -30751,7 +30752,7 @@
         <v>1155</v>
       </c>
       <c r="H6">
-        <v>40</v>
+        <v>940</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -30783,7 +30784,7 @@
         <v>12</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -30796,7 +30797,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:K8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K8">
     <sortCondition ref="H3:H8"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30806,10 +30807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -32023,7 +32024,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:Q36">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q36">
     <sortCondition ref="B3:B36"/>
     <sortCondition ref="C3:C36"/>
     <sortCondition ref="D3:D36"/>
